--- a/data/pca/factorExposure/factorExposure_2011-12-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0120540869674045</v>
+        <v>-0.01250157954075963</v>
       </c>
       <c r="C2">
-        <v>0.03171584404494823</v>
+        <v>-0.0259049681766992</v>
       </c>
       <c r="D2">
-        <v>0.01693012040647904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02125905248779884</v>
+      </c>
+      <c r="E2">
+        <v>-0.007485721342988106</v>
+      </c>
+      <c r="F2">
+        <v>0.02526840654632834</v>
+      </c>
+      <c r="G2">
+        <v>-0.002578551859941291</v>
+      </c>
+      <c r="H2">
+        <v>0.02686398760274216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07575288267573947</v>
+        <v>-0.08854167405499593</v>
       </c>
       <c r="C4">
-        <v>0.05527179498427334</v>
+        <v>-0.03836117256687946</v>
       </c>
       <c r="D4">
-        <v>0.07690966640750781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06831788099008738</v>
+      </c>
+      <c r="E4">
+        <v>-0.008526117961958745</v>
+      </c>
+      <c r="F4">
+        <v>0.03867035144923503</v>
+      </c>
+      <c r="G4">
+        <v>0.01809912163104649</v>
+      </c>
+      <c r="H4">
+        <v>-0.04017177002718036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1111643433563783</v>
+        <v>-0.1238845868778843</v>
       </c>
       <c r="C6">
-        <v>0.0540210807783405</v>
+        <v>-0.03917157451463568</v>
       </c>
       <c r="D6">
-        <v>0.0003744427662181378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.007774196138855563</v>
+      </c>
+      <c r="E6">
+        <v>0.02688809948845848</v>
+      </c>
+      <c r="F6">
+        <v>0.05044121366338188</v>
+      </c>
+      <c r="G6">
+        <v>0.02797624851684304</v>
+      </c>
+      <c r="H6">
+        <v>0.12565153727814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05585733049884849</v>
+        <v>-0.06471346632915331</v>
       </c>
       <c r="C7">
-        <v>0.032109943996306</v>
+        <v>-0.01717545637669743</v>
       </c>
       <c r="D7">
-        <v>0.02849606487087388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04947750467314057</v>
+      </c>
+      <c r="E7">
+        <v>-0.03137223212014656</v>
+      </c>
+      <c r="F7">
+        <v>0.03889284193423349</v>
+      </c>
+      <c r="G7">
+        <v>-0.03376433566779743</v>
+      </c>
+      <c r="H7">
+        <v>-0.02011529048728818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03913443606110858</v>
+        <v>-0.04220633816587814</v>
       </c>
       <c r="C8">
-        <v>0.01238831060611249</v>
+        <v>-0.008465021918663258</v>
       </c>
       <c r="D8">
-        <v>0.06155775150725768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0244143977271533</v>
+      </c>
+      <c r="E8">
+        <v>-0.01257138990682828</v>
+      </c>
+      <c r="F8">
+        <v>0.0679206266209678</v>
+      </c>
+      <c r="G8">
+        <v>0.07728242687304304</v>
+      </c>
+      <c r="H8">
+        <v>0.02038454202369923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07037206279781608</v>
+        <v>-0.08008853948066404</v>
       </c>
       <c r="C9">
-        <v>0.03999466086006014</v>
+        <v>-0.02433116806299326</v>
       </c>
       <c r="D9">
-        <v>0.07148034366096635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06294093134519023</v>
+      </c>
+      <c r="E9">
+        <v>-0.02395175037531808</v>
+      </c>
+      <c r="F9">
+        <v>0.0328169123588052</v>
+      </c>
+      <c r="G9">
+        <v>0.03158367703683537</v>
+      </c>
+      <c r="H9">
+        <v>-0.04469542075608972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02754905042048058</v>
+        <v>-0.04360285396982099</v>
       </c>
       <c r="C10">
-        <v>0.0218637952672396</v>
+        <v>-0.05482354070391241</v>
       </c>
       <c r="D10">
-        <v>-0.174031518020527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1773526023166016</v>
+      </c>
+      <c r="E10">
+        <v>-0.04052282069255169</v>
+      </c>
+      <c r="F10">
+        <v>0.04918891468275526</v>
+      </c>
+      <c r="G10">
+        <v>-0.03387331995339578</v>
+      </c>
+      <c r="H10">
+        <v>0.05371759306568843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07186511968151743</v>
+        <v>-0.07599642404054149</v>
       </c>
       <c r="C11">
-        <v>0.0453752771281619</v>
+        <v>-0.02300155887501047</v>
       </c>
       <c r="D11">
-        <v>0.05249211177925888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06505260546342043</v>
+      </c>
+      <c r="E11">
+        <v>0.003620237877152258</v>
+      </c>
+      <c r="F11">
+        <v>0.03071510542315471</v>
+      </c>
+      <c r="G11">
+        <v>0.04577492688071033</v>
+      </c>
+      <c r="H11">
+        <v>-0.06976415600589422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06108424867360748</v>
+        <v>-0.0698616928629931</v>
       </c>
       <c r="C12">
-        <v>0.05331965769017571</v>
+        <v>-0.03447322188441052</v>
       </c>
       <c r="D12">
-        <v>0.0420983886134854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04916887669365929</v>
+      </c>
+      <c r="E12">
+        <v>-0.01207277554216415</v>
+      </c>
+      <c r="F12">
+        <v>0.0220920571423999</v>
+      </c>
+      <c r="G12">
+        <v>0.0262774585258958</v>
+      </c>
+      <c r="H12">
+        <v>-0.03328475229519737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06867492605481573</v>
+        <v>-0.06786267960010722</v>
       </c>
       <c r="C13">
-        <v>0.03445835385379407</v>
+        <v>-0.01642011448606604</v>
       </c>
       <c r="D13">
-        <v>0.03943013377016853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03641842427458773</v>
+      </c>
+      <c r="E13">
+        <v>-0.006175722362895966</v>
+      </c>
+      <c r="F13">
+        <v>0.02894443109510408</v>
+      </c>
+      <c r="G13">
+        <v>0.02896132775619237</v>
+      </c>
+      <c r="H13">
+        <v>-0.0463133621167925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03320099525910855</v>
+        <v>-0.0401407500284939</v>
       </c>
       <c r="C14">
-        <v>0.03454750009881667</v>
+        <v>-0.02929510139927162</v>
       </c>
       <c r="D14">
-        <v>-0.01018469032449312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01281502064896862</v>
+      </c>
+      <c r="E14">
+        <v>-0.02664553069593115</v>
+      </c>
+      <c r="F14">
+        <v>0.01452067124839105</v>
+      </c>
+      <c r="G14">
+        <v>0.02287357083917524</v>
+      </c>
+      <c r="H14">
+        <v>-0.05605361449516132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04161563279816573</v>
+        <v>-0.04040853815232003</v>
       </c>
       <c r="C15">
-        <v>0.010367049135699</v>
+        <v>-0.002984808665546017</v>
       </c>
       <c r="D15">
-        <v>0.02154407969746188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00865110111080165</v>
+      </c>
+      <c r="E15">
+        <v>-0.03706590968325019</v>
+      </c>
+      <c r="F15">
+        <v>0.003259997226301607</v>
+      </c>
+      <c r="G15">
+        <v>0.0365055348859691</v>
+      </c>
+      <c r="H15">
+        <v>-0.02428583919912257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06102920279224792</v>
+        <v>-0.07120734676406495</v>
       </c>
       <c r="C16">
-        <v>0.04238542116321994</v>
+        <v>-0.02533534872216978</v>
       </c>
       <c r="D16">
-        <v>0.05026043974492856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06324826416683307</v>
+      </c>
+      <c r="E16">
+        <v>-0.006518741806165461</v>
+      </c>
+      <c r="F16">
+        <v>0.02917363713561451</v>
+      </c>
+      <c r="G16">
+        <v>0.02643566877482856</v>
+      </c>
+      <c r="H16">
+        <v>-0.05371862319908663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06498066936774337</v>
+        <v>-0.06367538565015325</v>
       </c>
       <c r="C20">
-        <v>0.02887720226307009</v>
+        <v>-0.009810826012849041</v>
       </c>
       <c r="D20">
-        <v>0.04562308493993571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03949742490170036</v>
+      </c>
+      <c r="E20">
+        <v>-0.00932879095386741</v>
+      </c>
+      <c r="F20">
+        <v>0.02852857678085032</v>
+      </c>
+      <c r="G20">
+        <v>0.02404595842083293</v>
+      </c>
+      <c r="H20">
+        <v>-0.04636247160129415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03128702458433354</v>
+        <v>-0.02850956292984724</v>
       </c>
       <c r="C21">
-        <v>0.003637306758155003</v>
+        <v>0.006326897638778015</v>
       </c>
       <c r="D21">
-        <v>0.0153833610986467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02004311580991004</v>
+      </c>
+      <c r="E21">
+        <v>-0.04062354081633722</v>
+      </c>
+      <c r="F21">
+        <v>-0.01574915862137369</v>
+      </c>
+      <c r="G21">
+        <v>0.007582176456094821</v>
+      </c>
+      <c r="H21">
+        <v>0.04849501740647596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0803496834603324</v>
+        <v>-0.07067390476077938</v>
       </c>
       <c r="C22">
-        <v>0.0614884919785243</v>
+        <v>-0.03040892562413119</v>
       </c>
       <c r="D22">
-        <v>0.1469991469929537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1037832025904353</v>
+      </c>
+      <c r="E22">
+        <v>-0.6106666657563312</v>
+      </c>
+      <c r="F22">
+        <v>-0.06359723821566227</v>
+      </c>
+      <c r="G22">
+        <v>-0.1745208029238332</v>
+      </c>
+      <c r="H22">
+        <v>0.1376257703806375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08138286684876411</v>
+        <v>-0.07159081380241515</v>
       </c>
       <c r="C23">
-        <v>0.0600109356442492</v>
+        <v>-0.02892090511510951</v>
       </c>
       <c r="D23">
-        <v>0.148262228248034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1048510904183852</v>
+      </c>
+      <c r="E23">
+        <v>-0.6127419187785238</v>
+      </c>
+      <c r="F23">
+        <v>-0.06302412467952165</v>
+      </c>
+      <c r="G23">
+        <v>-0.1684550310484405</v>
+      </c>
+      <c r="H23">
+        <v>0.133693459988819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07814949795566893</v>
+        <v>-0.08155045666746333</v>
       </c>
       <c r="C24">
-        <v>0.05580616579372424</v>
+        <v>-0.03184160791575981</v>
       </c>
       <c r="D24">
-        <v>0.05568973267758873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06194170670192472</v>
+      </c>
+      <c r="E24">
+        <v>-0.01136045725979567</v>
+      </c>
+      <c r="F24">
+        <v>0.03611476081517843</v>
+      </c>
+      <c r="G24">
+        <v>0.03910460187168951</v>
+      </c>
+      <c r="H24">
+        <v>-0.03590030822320717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07527852102818022</v>
+        <v>-0.07988105983428377</v>
       </c>
       <c r="C25">
-        <v>0.05626925209616455</v>
+        <v>-0.03488900924921029</v>
       </c>
       <c r="D25">
-        <v>0.05511244465232366</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0512735946852074</v>
+      </c>
+      <c r="E25">
+        <v>-0.01914656008650689</v>
+      </c>
+      <c r="F25">
+        <v>0.03296168303486556</v>
+      </c>
+      <c r="G25">
+        <v>0.05090751945810899</v>
+      </c>
+      <c r="H25">
+        <v>-0.03995263068546161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04698718559462699</v>
+        <v>-0.0463540933186514</v>
       </c>
       <c r="C26">
-        <v>0.01547405496845463</v>
+        <v>-0.004705159654310528</v>
       </c>
       <c r="D26">
-        <v>0.006201989181949055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01849755590988352</v>
+      </c>
+      <c r="E26">
+        <v>-0.04136409853026918</v>
+      </c>
+      <c r="F26">
+        <v>0.03108060217373987</v>
+      </c>
+      <c r="G26">
+        <v>0.01563859001718424</v>
+      </c>
+      <c r="H26">
+        <v>-0.04710647810990706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04413378920168724</v>
+        <v>-0.06801091975822254</v>
       </c>
       <c r="C28">
-        <v>0.06542448682878353</v>
+        <v>-0.1118455406482612</v>
       </c>
       <c r="D28">
-        <v>-0.3058590811903859</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2988232918027943</v>
+      </c>
+      <c r="E28">
+        <v>-0.03676742441583537</v>
+      </c>
+      <c r="F28">
+        <v>0.05480096317435999</v>
+      </c>
+      <c r="G28">
+        <v>0.02021587474663392</v>
+      </c>
+      <c r="H28">
+        <v>0.04954961235360933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04547447470041965</v>
+        <v>-0.04743996136160263</v>
       </c>
       <c r="C29">
-        <v>0.03180296860187225</v>
+        <v>-0.02318499927253553</v>
       </c>
       <c r="D29">
-        <v>0.001232659798548543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01247700316261283</v>
+      </c>
+      <c r="E29">
+        <v>-0.05749743696952463</v>
+      </c>
+      <c r="F29">
+        <v>0.01197976098259559</v>
+      </c>
+      <c r="G29">
+        <v>0.01201602261030091</v>
+      </c>
+      <c r="H29">
+        <v>-0.0704042027440642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1290629443042306</v>
+        <v>-0.1273199850255185</v>
       </c>
       <c r="C30">
-        <v>0.09264781592326074</v>
+        <v>-0.05821807825863015</v>
       </c>
       <c r="D30">
-        <v>0.1134408492295853</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08101046011967382</v>
+      </c>
+      <c r="E30">
+        <v>-0.05476304589121231</v>
+      </c>
+      <c r="F30">
+        <v>0.01228074852109951</v>
+      </c>
+      <c r="G30">
+        <v>0.061672296792885</v>
+      </c>
+      <c r="H30">
+        <v>0.03441012708065692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04876306630444011</v>
+        <v>-0.04964979156791657</v>
       </c>
       <c r="C31">
-        <v>0.0242450079762812</v>
+        <v>-0.01068147744054891</v>
       </c>
       <c r="D31">
-        <v>0.01776143533038936</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03367315001529068</v>
+      </c>
+      <c r="E31">
+        <v>-0.02527994320466935</v>
+      </c>
+      <c r="F31">
+        <v>0.007197982636796784</v>
+      </c>
+      <c r="G31">
+        <v>0.001755484497424479</v>
+      </c>
+      <c r="H31">
+        <v>-0.07028331154930803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03644231326461645</v>
+        <v>-0.03885158128263528</v>
       </c>
       <c r="C32">
-        <v>0.02379322928717941</v>
+        <v>-0.02195826619361433</v>
       </c>
       <c r="D32">
-        <v>0.02619741013363609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01172258770996848</v>
+      </c>
+      <c r="E32">
+        <v>-0.05207792778586541</v>
+      </c>
+      <c r="F32">
+        <v>-0.003205896107372261</v>
+      </c>
+      <c r="G32">
+        <v>0.04033941296524109</v>
+      </c>
+      <c r="H32">
+        <v>-0.02577637047446695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08726608297426441</v>
+        <v>-0.09467195838573279</v>
       </c>
       <c r="C33">
-        <v>0.04811793535130745</v>
+        <v>-0.02582104998771402</v>
       </c>
       <c r="D33">
-        <v>0.0456312083777274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0488987619182386</v>
+      </c>
+      <c r="E33">
+        <v>-0.01464371329655894</v>
+      </c>
+      <c r="F33">
+        <v>0.003651038383085962</v>
+      </c>
+      <c r="G33">
+        <v>0.01737300624931502</v>
+      </c>
+      <c r="H33">
+        <v>-0.06757396159933092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05937765353773236</v>
+        <v>-0.06494611021892095</v>
       </c>
       <c r="C34">
-        <v>0.02637236076665353</v>
+        <v>-0.009552463685563378</v>
       </c>
       <c r="D34">
-        <v>0.0466301746178971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04805608304004717</v>
+      </c>
+      <c r="E34">
+        <v>-0.007810924339384893</v>
+      </c>
+      <c r="F34">
+        <v>0.02441093587004791</v>
+      </c>
+      <c r="G34">
+        <v>0.03221648548145434</v>
+      </c>
+      <c r="H34">
+        <v>-0.04519166298818665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03768576785720357</v>
+        <v>-0.03867548119164992</v>
       </c>
       <c r="C35">
-        <v>0.01189517609783486</v>
+        <v>-0.004873984206488999</v>
       </c>
       <c r="D35">
-        <v>0.01970573785221199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01569898039786046</v>
+      </c>
+      <c r="E35">
+        <v>-0.02336164831983132</v>
+      </c>
+      <c r="F35">
+        <v>-0.01864949179870772</v>
+      </c>
+      <c r="G35">
+        <v>-0.004332251591939978</v>
+      </c>
+      <c r="H35">
+        <v>-0.0346091733875412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02472754441410631</v>
+        <v>-0.02915906748648283</v>
       </c>
       <c r="C36">
-        <v>0.0199175450183711</v>
+        <v>-0.01532988649102564</v>
       </c>
       <c r="D36">
-        <v>0.01948349104028615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01707029127537286</v>
+      </c>
+      <c r="E36">
+        <v>-0.03031679880554333</v>
+      </c>
+      <c r="F36">
+        <v>0.02916983066936076</v>
+      </c>
+      <c r="G36">
+        <v>0.007166047768894492</v>
+      </c>
+      <c r="H36">
+        <v>-0.05007610198772438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04657357043600606</v>
+        <v>-0.04661467218401096</v>
       </c>
       <c r="C38">
-        <v>0.004832977086302698</v>
+        <v>0.004197337457271038</v>
       </c>
       <c r="D38">
-        <v>0.01324253065138842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01841745935290558</v>
+      </c>
+      <c r="E38">
+        <v>-0.0487129047147731</v>
+      </c>
+      <c r="F38">
+        <v>-0.001662946321713059</v>
+      </c>
+      <c r="G38">
+        <v>0.006824125090858394</v>
+      </c>
+      <c r="H38">
+        <v>-0.0219901184813444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09317653425559888</v>
+        <v>-0.1023172403733758</v>
       </c>
       <c r="C39">
-        <v>0.06851499104096907</v>
+        <v>-0.04444421291028935</v>
       </c>
       <c r="D39">
-        <v>0.05340130948776336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06450120041708278</v>
+      </c>
+      <c r="E39">
+        <v>7.927676142737215e-05</v>
+      </c>
+      <c r="F39">
+        <v>-0.007877883931778613</v>
+      </c>
+      <c r="G39">
+        <v>0.03954433928377875</v>
+      </c>
+      <c r="H39">
+        <v>-0.02498172697536738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08080923142604847</v>
+        <v>-0.06282043416854047</v>
       </c>
       <c r="C40">
-        <v>0.03610268920735723</v>
+        <v>-0.003996096629324175</v>
       </c>
       <c r="D40">
-        <v>0.01085015641766315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03395712001162875</v>
+      </c>
+      <c r="E40">
+        <v>-0.03388964925303938</v>
+      </c>
+      <c r="F40">
+        <v>-0.03839283031127106</v>
+      </c>
+      <c r="G40">
+        <v>0.045568028489851</v>
+      </c>
+      <c r="H40">
+        <v>0.07179411460710218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04564739258043176</v>
+        <v>-0.04692335603917563</v>
       </c>
       <c r="C41">
-        <v>0.01244863930383792</v>
+        <v>-0.0003722903835055502</v>
       </c>
       <c r="D41">
-        <v>0.03473422447427325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03113765298262358</v>
+      </c>
+      <c r="E41">
+        <v>-0.004129150618290443</v>
+      </c>
+      <c r="F41">
+        <v>-0.01458689562642651</v>
+      </c>
+      <c r="G41">
+        <v>0.01087848401275768</v>
+      </c>
+      <c r="H41">
+        <v>-0.0270816819735193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05403876613493888</v>
+        <v>-0.06084413269511942</v>
       </c>
       <c r="C43">
-        <v>0.02843190247415165</v>
+        <v>-0.01726709997568854</v>
       </c>
       <c r="D43">
-        <v>0.0101300630328834</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02761350127811821</v>
+      </c>
+      <c r="E43">
+        <v>-0.02267561137263155</v>
+      </c>
+      <c r="F43">
+        <v>0.01549665462419744</v>
+      </c>
+      <c r="G43">
+        <v>-0.005582657222142497</v>
+      </c>
+      <c r="H43">
+        <v>-0.06496828709719119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09739422091031535</v>
+        <v>-0.09447046970285676</v>
       </c>
       <c r="C44">
-        <v>0.08677312212755973</v>
+        <v>-0.0549920257970371</v>
       </c>
       <c r="D44">
-        <v>0.0684547945812144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07056301127411939</v>
+      </c>
+      <c r="E44">
+        <v>-0.05985405135813024</v>
+      </c>
+      <c r="F44">
+        <v>0.08705264623017282</v>
+      </c>
+      <c r="G44">
+        <v>0.06661958897157814</v>
+      </c>
+      <c r="H44">
+        <v>-0.0806179272702776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02719597009819508</v>
+        <v>-0.03522871462049407</v>
       </c>
       <c r="C46">
-        <v>0.01760600328795584</v>
+        <v>-0.01154487848726264</v>
       </c>
       <c r="D46">
-        <v>0.03147696220327765</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03630307735954681</v>
+      </c>
+      <c r="E46">
+        <v>-0.03134935084465358</v>
+      </c>
+      <c r="F46">
+        <v>0.01634181947275697</v>
+      </c>
+      <c r="G46">
+        <v>0.005791939350538456</v>
+      </c>
+      <c r="H46">
+        <v>-0.02199953483694116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03473984688335724</v>
+        <v>-0.0411690302725369</v>
       </c>
       <c r="C47">
-        <v>0.02474258171696775</v>
+        <v>-0.01961060410407886</v>
       </c>
       <c r="D47">
-        <v>-0.001592339814605038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00690414608733458</v>
+      </c>
+      <c r="E47">
+        <v>-0.03926472623104925</v>
+      </c>
+      <c r="F47">
+        <v>-0.008572981644779952</v>
+      </c>
+      <c r="G47">
+        <v>-0.02988073902051901</v>
+      </c>
+      <c r="H47">
+        <v>-0.02903135824474086</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0372181217551967</v>
+        <v>-0.04053659694535969</v>
       </c>
       <c r="C48">
-        <v>0.02452912269340268</v>
+        <v>-0.01498935312474515</v>
       </c>
       <c r="D48">
-        <v>0.02734481544290021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01966154220292995</v>
+      </c>
+      <c r="E48">
+        <v>-0.03897331726397071</v>
+      </c>
+      <c r="F48">
+        <v>0.01049175785138572</v>
+      </c>
+      <c r="G48">
+        <v>0.01933232358325455</v>
+      </c>
+      <c r="H48">
+        <v>-0.02715848120318875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1627155299171904</v>
+        <v>-0.1989272092537947</v>
       </c>
       <c r="C49">
-        <v>0.0512492883873274</v>
+        <v>-0.03498002239272038</v>
       </c>
       <c r="D49">
-        <v>-0.0002281994496550341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02301482152692162</v>
+      </c>
+      <c r="E49">
+        <v>0.1675725413811668</v>
+      </c>
+      <c r="F49">
+        <v>0.04222696805095395</v>
+      </c>
+      <c r="G49">
+        <v>-0.1627998130624147</v>
+      </c>
+      <c r="H49">
+        <v>0.22244817185313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04286921821422316</v>
+        <v>-0.045393005487817</v>
       </c>
       <c r="C50">
-        <v>0.02574472589021093</v>
+        <v>-0.01385036540858562</v>
       </c>
       <c r="D50">
-        <v>0.03684594237607913</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03986828425358144</v>
+      </c>
+      <c r="E50">
+        <v>-0.03660349117315061</v>
+      </c>
+      <c r="F50">
+        <v>0.005085811847776203</v>
+      </c>
+      <c r="G50">
+        <v>0.005717511894320973</v>
+      </c>
+      <c r="H50">
+        <v>-0.07993385405382129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02937228589401747</v>
+        <v>-0.03527254186092071</v>
       </c>
       <c r="C51">
-        <v>0.01193267579631321</v>
+        <v>-0.007543172511216246</v>
       </c>
       <c r="D51">
-        <v>-0.003719771945881877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.000960768003331522</v>
+      </c>
+      <c r="E51">
+        <v>-0.01153119140838943</v>
+      </c>
+      <c r="F51">
+        <v>0.0070941073099875</v>
+      </c>
+      <c r="G51">
+        <v>-0.01746529908346978</v>
+      </c>
+      <c r="H51">
+        <v>0.01811988085427456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1548376212117405</v>
+        <v>-0.160330721867234</v>
       </c>
       <c r="C53">
-        <v>0.07469386152667001</v>
+        <v>-0.0459505513017696</v>
       </c>
       <c r="D53">
-        <v>-0.005278948366774838</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02556691648020687</v>
+      </c>
+      <c r="E53">
+        <v>0.03166476053150929</v>
+      </c>
+      <c r="F53">
+        <v>0.001071875333670458</v>
+      </c>
+      <c r="G53">
+        <v>0.03095704647007826</v>
+      </c>
+      <c r="H53">
+        <v>-0.1950865578183582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05897355715661321</v>
+        <v>-0.05852514542944666</v>
       </c>
       <c r="C54">
-        <v>0.02408678545577049</v>
+        <v>-0.01287602297560335</v>
       </c>
       <c r="D54">
-        <v>0.01516079508560965</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01390502756716246</v>
+      </c>
+      <c r="E54">
+        <v>-0.05298402549177223</v>
+      </c>
+      <c r="F54">
+        <v>0.01105836554640458</v>
+      </c>
+      <c r="G54">
+        <v>0.05845359139568893</v>
+      </c>
+      <c r="H54">
+        <v>-0.03609203956513714</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1033112326646568</v>
+        <v>-0.1037495576507201</v>
       </c>
       <c r="C55">
-        <v>0.05412083615775089</v>
+        <v>-0.03191922530523197</v>
       </c>
       <c r="D55">
-        <v>0.0143190477224565</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02952192591971035</v>
+      </c>
+      <c r="E55">
+        <v>-0.002633437491138863</v>
+      </c>
+      <c r="F55">
+        <v>0.01578394119808474</v>
+      </c>
+      <c r="G55">
+        <v>0.03484450448588541</v>
+      </c>
+      <c r="H55">
+        <v>-0.1556816615607389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.14987278283251</v>
+        <v>-0.1564002565536948</v>
       </c>
       <c r="C56">
-        <v>0.0809693562335463</v>
+        <v>-0.04899772255633705</v>
       </c>
       <c r="D56">
-        <v>0.0001406466184190765</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04048090520747026</v>
+      </c>
+      <c r="E56">
+        <v>0.01416854365559906</v>
+      </c>
+      <c r="F56">
+        <v>0.02423214446468453</v>
+      </c>
+      <c r="G56">
+        <v>0.03470417340626312</v>
+      </c>
+      <c r="H56">
+        <v>-0.1978106830227057</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1314574738286722</v>
+        <v>-0.1001657411413077</v>
       </c>
       <c r="C58">
-        <v>-0.01173855856681073</v>
+        <v>0.05502569898857516</v>
       </c>
       <c r="D58">
-        <v>0.05033196025906421</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03280045130518401</v>
+      </c>
+      <c r="E58">
+        <v>-0.1223664723226335</v>
+      </c>
+      <c r="F58">
+        <v>0.02869234678964577</v>
+      </c>
+      <c r="G58">
+        <v>-0.09908051746181792</v>
+      </c>
+      <c r="H58">
+        <v>0.1389904388711037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1173767145832756</v>
+        <v>-0.1438162592207994</v>
       </c>
       <c r="C59">
-        <v>0.0698978990825532</v>
+        <v>-0.1137803993583066</v>
       </c>
       <c r="D59">
-        <v>-0.3999103426456963</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.355951058990272</v>
+      </c>
+      <c r="E59">
+        <v>-0.0329970840335537</v>
+      </c>
+      <c r="F59">
+        <v>0.0002727493968410829</v>
+      </c>
+      <c r="G59">
+        <v>-0.005389178121160923</v>
+      </c>
+      <c r="H59">
+        <v>-0.01062720925223206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2086352221494443</v>
+        <v>-0.2396372270339073</v>
       </c>
       <c r="C60">
-        <v>0.0917918390775577</v>
+        <v>-0.06001449246931177</v>
       </c>
       <c r="D60">
-        <v>0.01052868906363067</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04240973678615196</v>
+      </c>
+      <c r="E60">
+        <v>0.1143107618002406</v>
+      </c>
+      <c r="F60">
+        <v>0.04658819459492344</v>
+      </c>
+      <c r="G60">
+        <v>-0.04050016506580414</v>
+      </c>
+      <c r="H60">
+        <v>0.1466133325078804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08088233685833288</v>
+        <v>-0.08639782532925679</v>
       </c>
       <c r="C61">
-        <v>0.04552769935396243</v>
+        <v>-0.02748147020429824</v>
       </c>
       <c r="D61">
-        <v>0.03336479904300971</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0434813404616442</v>
+      </c>
+      <c r="E61">
+        <v>-0.006124029942690203</v>
+      </c>
+      <c r="F61">
+        <v>0.005569370792790169</v>
+      </c>
+      <c r="G61">
+        <v>0.03339449472597258</v>
+      </c>
+      <c r="H61">
+        <v>-0.06092599691653874</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1341602261982761</v>
+        <v>-0.1373054522256762</v>
       </c>
       <c r="C62">
-        <v>0.06014316848070402</v>
+        <v>-0.02942455650114481</v>
       </c>
       <c r="D62">
-        <v>-0.002244897990662558</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04114153593018811</v>
+      </c>
+      <c r="E62">
+        <v>0.04755590471912672</v>
+      </c>
+      <c r="F62">
+        <v>-0.007983819141410345</v>
+      </c>
+      <c r="G62">
+        <v>0.06605648216285784</v>
+      </c>
+      <c r="H62">
+        <v>-0.1931816404341582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05253730106348161</v>
+        <v>-0.05142025674844878</v>
       </c>
       <c r="C63">
-        <v>0.02554020777955351</v>
+        <v>-0.01494329108650609</v>
       </c>
       <c r="D63">
-        <v>0.02340114218805855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02041136352615974</v>
+      </c>
+      <c r="E63">
+        <v>-0.04580255732902931</v>
+      </c>
+      <c r="F63">
+        <v>-0.003608747136624818</v>
+      </c>
+      <c r="G63">
+        <v>0.02758070734737277</v>
+      </c>
+      <c r="H63">
+        <v>-0.03497339070445286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1067298644209299</v>
+        <v>-0.1094486699302599</v>
       </c>
       <c r="C64">
-        <v>0.03574602484398563</v>
+        <v>-0.0171940025902171</v>
       </c>
       <c r="D64">
-        <v>0.02042713949280053</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02738212282484882</v>
+      </c>
+      <c r="E64">
+        <v>-0.03632809581997576</v>
+      </c>
+      <c r="F64">
+        <v>0.04043570961139979</v>
+      </c>
+      <c r="G64">
+        <v>0.06169120922482205</v>
+      </c>
+      <c r="H64">
+        <v>-0.02355789033001987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1273397977710712</v>
+        <v>-0.128948292735556</v>
       </c>
       <c r="C65">
-        <v>0.05752209097629193</v>
+        <v>-0.03943200697776183</v>
       </c>
       <c r="D65">
-        <v>0.006303520954422044</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.009535449123857957</v>
+      </c>
+      <c r="E65">
+        <v>0.01109673728319448</v>
+      </c>
+      <c r="F65">
+        <v>0.04411337295232936</v>
+      </c>
+      <c r="G65">
+        <v>0.0607876759882977</v>
+      </c>
+      <c r="H65">
+        <v>0.1582281880538088</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1481052086817498</v>
+        <v>-0.1518337714683738</v>
       </c>
       <c r="C66">
-        <v>0.07139875108490251</v>
+        <v>-0.03395859693345826</v>
       </c>
       <c r="D66">
-        <v>0.09647873218677393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1019727727411168</v>
+      </c>
+      <c r="E66">
+        <v>0.02748470984977242</v>
+      </c>
+      <c r="F66">
+        <v>-0.001805330946434335</v>
+      </c>
+      <c r="G66">
+        <v>0.07125598971218276</v>
+      </c>
+      <c r="H66">
+        <v>-0.08618069493184777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07697956756086914</v>
+        <v>-0.0862969970829547</v>
       </c>
       <c r="C67">
-        <v>0.01163746906662173</v>
+        <v>0.0002616508057942441</v>
       </c>
       <c r="D67">
-        <v>0.01945665413700042</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03024353444100821</v>
+      </c>
+      <c r="E67">
+        <v>-0.02057668172424618</v>
+      </c>
+      <c r="F67">
+        <v>0.0148880643919123</v>
+      </c>
+      <c r="G67">
+        <v>-0.008854670658663194</v>
+      </c>
+      <c r="H67">
+        <v>-0.02025755979302615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05267804024186955</v>
+        <v>-0.06169804886542253</v>
       </c>
       <c r="C68">
-        <v>0.04536550778791607</v>
+        <v>-0.08335574328971705</v>
       </c>
       <c r="D68">
-        <v>-0.2604917046664185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2644502451321439</v>
+      </c>
+      <c r="E68">
+        <v>-0.04618073392461435</v>
+      </c>
+      <c r="F68">
+        <v>0.01576003088363569</v>
+      </c>
+      <c r="G68">
+        <v>0.001712371698510488</v>
+      </c>
+      <c r="H68">
+        <v>-0.01871324763159387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05405454546224468</v>
+        <v>-0.0529761419239945</v>
       </c>
       <c r="C69">
-        <v>0.01908009816452274</v>
+        <v>-0.005218505934706265</v>
       </c>
       <c r="D69">
-        <v>0.02223533322013703</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0195446267261057</v>
+      </c>
+      <c r="E69">
+        <v>-0.02354560457606974</v>
+      </c>
+      <c r="F69">
+        <v>-0.01355693440462894</v>
+      </c>
+      <c r="G69">
+        <v>0.002141978214043779</v>
+      </c>
+      <c r="H69">
+        <v>-0.04468506756902916</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002559327044536974</v>
+        <v>-0.0272381029092511</v>
       </c>
       <c r="C70">
-        <v>-0.006833935081928273</v>
+        <v>0.00219268495648467</v>
       </c>
       <c r="D70">
-        <v>-0.01140904466348361</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007295330310114668</v>
+      </c>
+      <c r="E70">
+        <v>0.02237153202268008</v>
+      </c>
+      <c r="F70">
+        <v>-0.007511185612244562</v>
+      </c>
+      <c r="G70">
+        <v>-0.02493834779506387</v>
+      </c>
+      <c r="H70">
+        <v>0.03533560573318442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05226068672536935</v>
+        <v>-0.06781810056992489</v>
       </c>
       <c r="C71">
-        <v>0.04638290395995033</v>
+        <v>-0.09435653310753649</v>
       </c>
       <c r="D71">
-        <v>-0.2955727317959616</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2932536604674472</v>
+      </c>
+      <c r="E71">
+        <v>-0.04535607463680155</v>
+      </c>
+      <c r="F71">
+        <v>0.0429098418484202</v>
+      </c>
+      <c r="G71">
+        <v>0.00470998053171176</v>
+      </c>
+      <c r="H71">
+        <v>-0.01252665220208608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1420377584187181</v>
+        <v>-0.1443744071658326</v>
       </c>
       <c r="C72">
-        <v>0.06378096131388114</v>
+        <v>-0.03553399901718585</v>
       </c>
       <c r="D72">
-        <v>-0.009828453243072563</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002381836675521092</v>
+      </c>
+      <c r="E72">
+        <v>0.05069157052832813</v>
+      </c>
+      <c r="F72">
+        <v>-0.1593219912309853</v>
+      </c>
+      <c r="G72">
+        <v>0.1121208030462334</v>
+      </c>
+      <c r="H72">
+        <v>0.01054353872438589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2859089648611327</v>
+        <v>-0.2899007734556554</v>
       </c>
       <c r="C73">
-        <v>0.09411823710899729</v>
+        <v>-0.0240799281581761</v>
       </c>
       <c r="D73">
-        <v>0.03728489286431072</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09366600481134517</v>
+      </c>
+      <c r="E73">
+        <v>0.2574329497851898</v>
+      </c>
+      <c r="F73">
+        <v>0.0783304421178236</v>
+      </c>
+      <c r="G73">
+        <v>-0.2913963977000406</v>
+      </c>
+      <c r="H73">
+        <v>0.3763332727837384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08374118743601774</v>
+        <v>-0.09215324321287025</v>
       </c>
       <c r="C74">
-        <v>0.07501797521127722</v>
+        <v>-0.05439531335223258</v>
       </c>
       <c r="D74">
-        <v>0.003161209977166088</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.037967657625278</v>
+      </c>
+      <c r="E74">
+        <v>0.003981632576150249</v>
+      </c>
+      <c r="F74">
+        <v>-0.000236524953289736</v>
+      </c>
+      <c r="G74">
+        <v>-0.01416650969193388</v>
+      </c>
+      <c r="H74">
+        <v>-0.1340749408737324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1002431228018844</v>
+        <v>-0.1028950658411157</v>
       </c>
       <c r="C75">
-        <v>0.04757272804855616</v>
+        <v>-0.02112669656834525</v>
       </c>
       <c r="D75">
-        <v>0.01389316897067612</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02522213964370204</v>
+      </c>
+      <c r="E75">
+        <v>0.000877795957724559</v>
+      </c>
+      <c r="F75">
+        <v>5.333053042431326e-05</v>
+      </c>
+      <c r="G75">
+        <v>-0.0003059641859957516</v>
+      </c>
+      <c r="H75">
+        <v>-0.09716491941283636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1323291725518368</v>
+        <v>-0.1412879574768847</v>
       </c>
       <c r="C76">
-        <v>0.07629699915850847</v>
+        <v>-0.04837537100805357</v>
       </c>
       <c r="D76">
-        <v>0.0241936891669325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0527947801542912</v>
+      </c>
+      <c r="E76">
+        <v>-0.01589096660446997</v>
+      </c>
+      <c r="F76">
+        <v>0.03421514996866609</v>
+      </c>
+      <c r="G76">
+        <v>0.04713890829556196</v>
+      </c>
+      <c r="H76">
+        <v>-0.2169739037415294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1185021742422213</v>
+        <v>-0.1027376435920399</v>
       </c>
       <c r="C77">
-        <v>0.02507653952070105</v>
+        <v>0.009870857067232735</v>
       </c>
       <c r="D77">
-        <v>0.08091504106856938</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04140836587832851</v>
+      </c>
+      <c r="E77">
+        <v>-0.04630178800744521</v>
+      </c>
+      <c r="F77">
+        <v>0.0536188109533634</v>
+      </c>
+      <c r="G77">
+        <v>0.7695924142171203</v>
+      </c>
+      <c r="H77">
+        <v>0.4177731466638867</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1083121427899697</v>
+        <v>-0.1527628516125404</v>
       </c>
       <c r="C78">
-        <v>0.0417245331015522</v>
+        <v>-0.03585176512133699</v>
       </c>
       <c r="D78">
-        <v>0.09095793733383357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0787039577835031</v>
+      </c>
+      <c r="E78">
+        <v>-0.05352524273002314</v>
+      </c>
+      <c r="F78">
+        <v>0.05272145655120786</v>
+      </c>
+      <c r="G78">
+        <v>0.03844058946642591</v>
+      </c>
+      <c r="H78">
+        <v>0.07569883486884933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.146152869196112</v>
+        <v>-0.1471340821101924</v>
       </c>
       <c r="C79">
-        <v>0.0689132278232932</v>
+        <v>-0.03399601441113372</v>
       </c>
       <c r="D79">
-        <v>0.01760054803653346</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03943501412667723</v>
+      </c>
+      <c r="E79">
+        <v>0.01479980956996232</v>
+      </c>
+      <c r="F79">
+        <v>0.01786498187053451</v>
+      </c>
+      <c r="G79">
+        <v>0.03912463598209448</v>
+      </c>
+      <c r="H79">
+        <v>-0.1541026126476787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04153393886632845</v>
+        <v>-0.04240631256335249</v>
       </c>
       <c r="C80">
-        <v>0.01940317584214452</v>
+        <v>-0.01120027883287443</v>
       </c>
       <c r="D80">
-        <v>0.03140314655222402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01499092948935037</v>
+      </c>
+      <c r="E80">
+        <v>0.03930415177100208</v>
+      </c>
+      <c r="F80">
+        <v>0.003884346574660949</v>
+      </c>
+      <c r="G80">
+        <v>-0.01694305123287576</v>
+      </c>
+      <c r="H80">
+        <v>-0.04407116166881041</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.123778744733937</v>
+        <v>-0.1254307433626261</v>
       </c>
       <c r="C81">
-        <v>0.05999430904442837</v>
+        <v>-0.0330351462343054</v>
       </c>
       <c r="D81">
-        <v>0.02708617700701436</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02888572878190343</v>
+      </c>
+      <c r="E81">
+        <v>-0.008784648933744699</v>
+      </c>
+      <c r="F81">
+        <v>0.01715108193158399</v>
+      </c>
+      <c r="G81">
+        <v>0.00115630460664178</v>
+      </c>
+      <c r="H81">
+        <v>-0.1445160174597496</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1343770119383095</v>
+        <v>-0.1313758481122171</v>
       </c>
       <c r="C82">
-        <v>0.06763925731826841</v>
+        <v>-0.0378725786790397</v>
       </c>
       <c r="D82">
-        <v>-0.0006819645907385386</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0347892712930514</v>
+      </c>
+      <c r="E82">
+        <v>0.02106888654465105</v>
+      </c>
+      <c r="F82">
+        <v>0.04254794738348425</v>
+      </c>
+      <c r="G82">
+        <v>0.02938234889542184</v>
+      </c>
+      <c r="H82">
+        <v>-0.2120909693489482</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06264384430581488</v>
+        <v>-0.07839417750599204</v>
       </c>
       <c r="C83">
-        <v>-0.03110182572840024</v>
+        <v>0.04018150716521278</v>
       </c>
       <c r="D83">
-        <v>0.02418477037722493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02022177095778373</v>
+      </c>
+      <c r="E83">
+        <v>-0.02244939162015398</v>
+      </c>
+      <c r="F83">
+        <v>0.03304000414396292</v>
+      </c>
+      <c r="G83">
+        <v>-0.04232146397846948</v>
+      </c>
+      <c r="H83">
+        <v>0.02436001821967717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02718570951062509</v>
+        <v>-0.03341639414224665</v>
       </c>
       <c r="C84">
-        <v>0.02481941080983797</v>
+        <v>-0.01428437956721119</v>
       </c>
       <c r="D84">
-        <v>0.03947376254969751</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04037270064460553</v>
+      </c>
+      <c r="E84">
+        <v>-0.01746700064433306</v>
+      </c>
+      <c r="F84">
+        <v>-0.0370997927494227</v>
+      </c>
+      <c r="G84">
+        <v>-0.0350251279797649</v>
+      </c>
+      <c r="H84">
+        <v>-0.0399784128147531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1192715713285999</v>
+        <v>-0.1226448722800286</v>
       </c>
       <c r="C85">
-        <v>0.0405102514990867</v>
+        <v>-0.01523423657292039</v>
       </c>
       <c r="D85">
-        <v>0.049618218363043</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03801944818620169</v>
+      </c>
+      <c r="E85">
+        <v>-0.01760339265089662</v>
+      </c>
+      <c r="F85">
+        <v>0.03626669555011473</v>
+      </c>
+      <c r="G85">
+        <v>0.003273801614843532</v>
+      </c>
+      <c r="H85">
+        <v>-0.1425049289127301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05328746602437749</v>
+        <v>-0.05622554199196611</v>
       </c>
       <c r="C86">
-        <v>0.02469535217129778</v>
+        <v>-0.009516912588629609</v>
       </c>
       <c r="D86">
-        <v>0.06232616038239969</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03569636729564907</v>
+      </c>
+      <c r="E86">
+        <v>-0.03897394312557438</v>
+      </c>
+      <c r="F86">
+        <v>0.020197510323687</v>
+      </c>
+      <c r="G86">
+        <v>-0.05093251631680379</v>
+      </c>
+      <c r="H86">
+        <v>0.04005723086879209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1231128690345509</v>
+        <v>-0.1253925387621133</v>
       </c>
       <c r="C87">
-        <v>0.0731019265061895</v>
+        <v>-0.03495054139203738</v>
       </c>
       <c r="D87">
-        <v>0.06748752114103458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0688218202384458</v>
+      </c>
+      <c r="E87">
+        <v>-0.01924971701779662</v>
+      </c>
+      <c r="F87">
+        <v>0.01614094552011761</v>
+      </c>
+      <c r="G87">
+        <v>0.1452274002551783</v>
+      </c>
+      <c r="H87">
+        <v>0.08662882262139429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05388985173667193</v>
+        <v>-0.06266115386071761</v>
       </c>
       <c r="C88">
-        <v>0.03046928604331002</v>
+        <v>-0.01934366701798921</v>
       </c>
       <c r="D88">
-        <v>0.02346056767764012</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03848427377240497</v>
+      </c>
+      <c r="E88">
+        <v>-0.007468114090596037</v>
+      </c>
+      <c r="F88">
+        <v>0.01882385873489551</v>
+      </c>
+      <c r="G88">
+        <v>0.01735346170955936</v>
+      </c>
+      <c r="H88">
+        <v>-0.04183312424599985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0816365989270221</v>
+        <v>-0.1045220693499178</v>
       </c>
       <c r="C89">
-        <v>0.06653087829290412</v>
+        <v>-0.1194880182553184</v>
       </c>
       <c r="D89">
-        <v>-0.3225480812877591</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3407086196669715</v>
+      </c>
+      <c r="E89">
+        <v>-0.06452450875069576</v>
+      </c>
+      <c r="F89">
+        <v>0.07179237369134876</v>
+      </c>
+      <c r="G89">
+        <v>-0.01918374809687522</v>
+      </c>
+      <c r="H89">
+        <v>-0.02085506303301317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0633928304181265</v>
+        <v>-0.08136777470005399</v>
       </c>
       <c r="C90">
-        <v>0.05512151508431405</v>
+        <v>-0.09754917739813426</v>
       </c>
       <c r="D90">
-        <v>-0.2818976955883861</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2815919109370276</v>
+      </c>
+      <c r="E90">
+        <v>-0.05090010630352703</v>
+      </c>
+      <c r="F90">
+        <v>0.02913262624978895</v>
+      </c>
+      <c r="G90">
+        <v>0.02529422045065046</v>
+      </c>
+      <c r="H90">
+        <v>0.0115601194837313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08908710519836527</v>
+        <v>-0.0901533106468264</v>
       </c>
       <c r="C91">
-        <v>0.0482288071351401</v>
+        <v>-0.02391705388367621</v>
       </c>
       <c r="D91">
-        <v>0.01435336556508201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03255183988948569</v>
+      </c>
+      <c r="E91">
+        <v>-0.007463289846551481</v>
+      </c>
+      <c r="F91">
+        <v>0.002115246378619911</v>
+      </c>
+      <c r="G91">
+        <v>-0.0149456300622457</v>
+      </c>
+      <c r="H91">
+        <v>-0.08984447829401854</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06642046456930252</v>
+        <v>-0.08188957384685505</v>
       </c>
       <c r="C92">
-        <v>0.06174289852495692</v>
+        <v>-0.111037906448473</v>
       </c>
       <c r="D92">
-        <v>-0.3357080945178887</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.330558228071843</v>
+      </c>
+      <c r="E92">
+        <v>-0.05083563070890598</v>
+      </c>
+      <c r="F92">
+        <v>0.0352609192241428</v>
+      </c>
+      <c r="G92">
+        <v>0.001583494126245421</v>
+      </c>
+      <c r="H92">
+        <v>-0.01871757601793931</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05786893150402316</v>
+        <v>-0.07838611086991167</v>
       </c>
       <c r="C93">
-        <v>0.05832310159142851</v>
+        <v>-0.1079116310950746</v>
       </c>
       <c r="D93">
-        <v>-0.3020876260576527</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2976483692763072</v>
+      </c>
+      <c r="E93">
+        <v>-0.02697518821299493</v>
+      </c>
+      <c r="F93">
+        <v>0.02804757743849464</v>
+      </c>
+      <c r="G93">
+        <v>0.01671405933562886</v>
+      </c>
+      <c r="H93">
+        <v>-0.002914174207226021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1339894391094071</v>
+        <v>-0.1292859926941698</v>
       </c>
       <c r="C94">
-        <v>0.04297752994718358</v>
+        <v>-0.008621607424053676</v>
       </c>
       <c r="D94">
-        <v>0.04200110826959525</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04843011984015401</v>
+      </c>
+      <c r="E94">
+        <v>0.0189231958828131</v>
+      </c>
+      <c r="F94">
+        <v>0.01602457694242165</v>
+      </c>
+      <c r="G94">
+        <v>-0.03083819224214313</v>
+      </c>
+      <c r="H94">
+        <v>-0.109200612853181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1214662251211787</v>
+        <v>-0.1295510805337109</v>
       </c>
       <c r="C95">
-        <v>0.01755965384356675</v>
+        <v>0.00908575089560798</v>
       </c>
       <c r="D95">
-        <v>0.05446036909357258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05708977501341186</v>
+      </c>
+      <c r="E95">
+        <v>-0.006221731561488668</v>
+      </c>
+      <c r="F95">
+        <v>0.05016758881967748</v>
+      </c>
+      <c r="G95">
+        <v>0.02426896827909032</v>
+      </c>
+      <c r="H95">
+        <v>0.09721891653037064</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.218981409017336</v>
+        <v>-0.1938703762765541</v>
       </c>
       <c r="C97">
-        <v>0.03507861443256974</v>
+        <v>0.01672238175972924</v>
       </c>
       <c r="D97">
-        <v>-0.09700527622454379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06620916933460803</v>
+      </c>
+      <c r="E97">
+        <v>0.07061260056806684</v>
+      </c>
+      <c r="F97">
+        <v>-0.9367949902254341</v>
+      </c>
+      <c r="G97">
+        <v>0.03376162008001215</v>
+      </c>
+      <c r="H97">
+        <v>0.02016277572492311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.241991380667071</v>
+        <v>-0.2730526462339131</v>
       </c>
       <c r="C98">
-        <v>0.05019837054756295</v>
+        <v>-0.0106670296697241</v>
       </c>
       <c r="D98">
-        <v>0.01300923044884066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04404975097675314</v>
+      </c>
+      <c r="E98">
+        <v>0.1967461710463393</v>
+      </c>
+      <c r="F98">
+        <v>0.04880555256097869</v>
+      </c>
+      <c r="G98">
+        <v>-0.3313625345090388</v>
+      </c>
+      <c r="H98">
+        <v>0.17063929027915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.405543786054634</v>
+        <v>-0.2623915456905029</v>
       </c>
       <c r="C99">
-        <v>-0.8952909648757874</v>
+        <v>0.9204109767814929</v>
       </c>
       <c r="D99">
-        <v>-0.04952157922561164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2160073988460617</v>
+      </c>
+      <c r="E99">
+        <v>-0.06915034102125067</v>
+      </c>
+      <c r="F99">
+        <v>0.07854105872512196</v>
+      </c>
+      <c r="G99">
+        <v>0.02225213601251148</v>
+      </c>
+      <c r="H99">
+        <v>-0.07284797818481233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04548782112320657</v>
+        <v>-0.04751720227804761</v>
       </c>
       <c r="C101">
-        <v>0.03206355756146863</v>
+        <v>-0.02349089862314595</v>
       </c>
       <c r="D101">
-        <v>0.001509026123035733</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01254852908963304</v>
+      </c>
+      <c r="E101">
+        <v>-0.05746197494952009</v>
+      </c>
+      <c r="F101">
+        <v>0.01192131637102164</v>
+      </c>
+      <c r="G101">
+        <v>0.01130092131704993</v>
+      </c>
+      <c r="H101">
+        <v>-0.0693611693260517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
